--- a/Redes/planejamento_ipv4_ipv6_2oSem_2024.xlsx
+++ b/Redes/planejamento_ipv4_ipv6_2oSem_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>Grupo:</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>2001:db8:f:e000::/56</t>
+  </si>
+  <si>
+    <t>nandao</t>
   </si>
   <si>
     <t>OBS: Alocar redes IPv6 /64 
@@ -29136,7 +29139,9 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -29213,7 +29218,7 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="D8" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
@@ -29231,7 +29236,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>16</v>
@@ -29259,26 +29264,26 @@
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" ref="F9:F16" si="1">RIGHT(E9,LEN(E9) - (FIND("::/",E9) + 1))</f>
         <v>/64</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>76</v>
-      </c>
       <c r="J9" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -29301,32 +29306,32 @@
         <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>/64</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -29351,26 +29356,26 @@
         <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/64</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="J11" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -29393,32 +29398,32 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/64</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>91</v>
-      </c>
       <c r="J12" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -29443,26 +29448,26 @@
         <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/64</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="J13" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -29487,26 +29492,26 @@
         <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/64</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>99</v>
-      </c>
       <c r="J14" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -29528,29 +29533,29 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/127</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>104</v>
-      </c>
       <c r="J15" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -29572,29 +29577,29 @@
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>/128</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
